--- a/data/income_statement/3digits/total/478_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/478_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>478-Retail sale via stalls and markets</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>478-Retail sale via stalls and markets</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>89408.72765999999</v>
@@ -962,7 +868,7 @@
         <v>189352.58345</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>268275.22069</v>
+        <v>268538.76709</v>
       </c>
       <c r="H5" s="47" t="n">
         <v>327045.47181</v>
@@ -971,25 +877,30 @@
         <v>254576.70602</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>316317.97133</v>
+        <v>316306.93363</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>521134.11031</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>196280.52883</v>
+        <v>196294.2068</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>251267.28678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>254625.81675</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>271950.146</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>86410.24982000001</v>
+        <v>86410.24982</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>126477.51759</v>
@@ -1001,7 +912,7 @@
         <v>180992.30874</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>258768.48528</v>
+        <v>259032.03168</v>
       </c>
       <c r="H6" s="48" t="n">
         <v>315651.82267</v>
@@ -1010,22 +921,27 @@
         <v>241959.8526</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>304452.1945</v>
+        <v>304441.1568</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>506477.70015</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>187121.61626</v>
+        <v>187135.29423</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>243463.55666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>246818.52889</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>263492.927</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1814.27959</v>
@@ -1055,22 +971,27 @@
         <v>6566.50043</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>4723.933359999999</v>
+        <v>4723.93336</v>
       </c>
       <c r="M7" s="48" t="n">
         <v>4438.3453</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>2929.334</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>1184.19825</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>702.32294</v>
+        <v>702.3229399999999</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>1710.39172</v>
@@ -1085,25 +1006,30 @@
         <v>5086.486339999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>4378.390520000001</v>
+        <v>4378.39052</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>6089.77088</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>8089.90973</v>
+        <v>8089.909729999999</v>
       </c>
       <c r="L8" s="48" t="n">
         <v>4434.97921</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>3365.38482</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>3368.94256</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>5527.885</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1416.17376</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>2443.74463</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>1265.387</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>505.82173</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>2418.25144</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>1146.398</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>799.3768200000001</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>7.944649999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>116.956</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>110.97521</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>17.54854</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>2.033</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>87992.5539</v>
@@ -1274,7 +1220,7 @@
         <v>188572.26025</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>266837.45992</v>
+        <v>267101.00632</v>
       </c>
       <c r="H13" s="47" t="n">
         <v>324297.48622</v>
@@ -1283,22 +1229,27 @@
         <v>253148.25675</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>314721.52652</v>
+        <v>314710.48882</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>519176.71279</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>194924.26823</v>
+        <v>194937.9462</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>248823.54215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>252182.07212</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>270684.759</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>75379.43674999999</v>
@@ -1313,7 +1264,7 @@
         <v>169891.67197</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>244783.56869</v>
+        <v>245012.73947</v>
       </c>
       <c r="H14" s="47" t="n">
         <v>298254.66576</v>
@@ -1322,22 +1273,27 @@
         <v>226912.85557</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>276806.4083</v>
+        <v>276796.84304</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>471301.66321</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>156662.69483</v>
+        <v>156671.38815</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>205378.32347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>207170.18479</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>226519.269</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2802.01787</v>
@@ -1367,16 +1323,21 @@
         <v>32454.74122</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>7222.820880000001</v>
+        <v>7222.82088</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>14014.77812</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>14346.34911</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>14354.83</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>68190.60065000001</v>
@@ -1391,7 +1352,7 @@
         <v>157067.10052</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>229566.77012</v>
+        <v>229795.9409</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>281454.57459</v>
@@ -1400,22 +1361,27 @@
         <v>209493.89523</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>254377.09261</v>
+        <v>254367.22735</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>427087.27547</v>
+        <v>427087.2754700001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>142756.8122</v>
+        <v>142765.22262</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>182861.09807</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>184316.55698</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>201159.331</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>4340.19321</v>
@@ -1439,22 +1405,27 @@
         <v>4295.98595</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>8179.51301</v>
+        <v>8179.81301</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>10675.02907</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>6186.21876</v>
+        <v>6186.50166</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>8283.44126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>8288.194680000001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>10884.972</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>46.62502</v>
@@ -1487,13 +1458,18 @@
         <v>496.84299</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>219.00602</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>219.08402</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>120.136</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>12613.11715</v>
@@ -1508,7 +1484,7 @@
         <v>18680.58828</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>22053.89123</v>
+        <v>22088.26685</v>
       </c>
       <c r="H19" s="47" t="n">
         <v>26042.82046</v>
@@ -1517,22 +1493,27 @@
         <v>26235.40118</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>37915.11822</v>
+        <v>37913.64578</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>47875.04958</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>38261.5734</v>
+        <v>38266.55805</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>43445.21868</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>45011.88733</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>44165.49</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>11770.87474</v>
@@ -1547,7 +1528,7 @@
         <v>17176.12581</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>19597.48981</v>
+        <v>19666.2335</v>
       </c>
       <c r="H20" s="47" t="n">
         <v>22932.07275</v>
@@ -1556,22 +1537,27 @@
         <v>23219.55569</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>34690.32984000001</v>
+        <v>34690.06455</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>44066.27395</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>36170.37103</v>
+        <v>36668.43298999999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>40769.72457</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>42206.62135</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>41391.606</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>3209.91741</v>
@@ -1622,13 +1613,13 @@
         <v>3347.23114</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>4100.96277</v>
+        <v>4100.962769999999</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>5893.12383</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>7482.668460000001</v>
+        <v>7482.66846</v>
       </c>
       <c r="I22" s="48" t="n">
         <v>7587.84992</v>
@@ -1640,16 +1631,21 @@
         <v>15568.2946</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>13020.93939</v>
+        <v>13067.96934</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>13994.75989</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>14631.98555</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>14508.462</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>8560.957329999999</v>
@@ -1664,7 +1660,7 @@
         <v>13070.33082</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>13704.11598</v>
+        <v>13772.85967</v>
       </c>
       <c r="H23" s="48" t="n">
         <v>15420.88429</v>
@@ -1673,25 +1669,30 @@
         <v>15631.70577</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>23106.79921</v>
+        <v>23106.53392</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>28497.97935</v>
+        <v>28497.97935000001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>23149.43164</v>
+        <v>23600.46365</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>26774.96468</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>27574.6358</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>26883.144</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>842.2424099999999</v>
+        <v>842.2424100000001</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>1109.75122</v>
@@ -1703,37 +1704,42 @@
         <v>1504.46247</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2456.40142</v>
+        <v>2422.03335</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>3110.747710000001</v>
+        <v>3110.74771</v>
       </c>
       <c r="I24" s="47" t="n">
         <v>3015.84549</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>3224.78838</v>
+        <v>3223.58123</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>3808.77563</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2091.20237</v>
+        <v>1598.12506</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2675.494110000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2805.26598</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2773.884</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>225.80794</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>350.0129200000001</v>
+        <v>350.01292</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>406.3517000000001</v>
@@ -1745,28 +1751,33 @@
         <v>332.62143</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>443.20154</v>
+        <v>443.2015399999999</v>
       </c>
       <c r="I25" s="47" t="n">
         <v>454.89858</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>578.88561</v>
+        <v>578.8856100000002</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1660.01314</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2172.74245</v>
+        <v>2427.38234</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>789.38099</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1101.48696</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1580.682</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>17.29809</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1.555</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>11.885</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>36.79353</v>
@@ -1879,11 +1900,16 @@
       <c r="M28" s="48" t="n">
         <v>18.03195</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>65.36799999999999</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>66.69410999999999</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>231.26347</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>153.455</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1.9024</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>0.3074</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>27.47978</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>119.82403</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>44.907</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>74.08503</v>
@@ -2126,7 +2182,7 @@
         <v>220.82935</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>295.91879</v>
+        <v>295.9187900000001</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>164.75206</v>
@@ -2144,19 +2200,24 @@
         <v>348.70256</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>845.5370100000001</v>
+        <v>845.53701</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>620.9680999999999</v>
+        <v>875.60799</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>408.06914</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>720.17511</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1308.542</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>380.38002</v>
@@ -2168,10 +2229,10 @@
         <v>306.74864</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>835.47328</v>
+        <v>835.4732799999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>215.99698</v>
+        <v>216.19757</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>345.08318</v>
@@ -2186,16 +2247,21 @@
         <v>1081.04322</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>514.20116</v>
+        <v>538.8640300000001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>509.05212</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>509.98443</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>289.664</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>4.72691</v>
@@ -2207,7 +2273,7 @@
         <v>19.36767</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>77.56604000000002</v>
+        <v>77.56603999999999</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>68.8745</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>398.81813</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>135.748</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>0</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>267.11985</v>
@@ -2321,7 +2402,7 @@
         <v>138.56028</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>82.65029000000001</v>
+        <v>82.65029</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>18.87566</v>
@@ -2345,13 +2426,18 @@
         <v>122.40714</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>49.23768999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>50.17</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>48.774</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0.27326</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>108.26</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>872.0304199999999</v>
+        <v>872.03042</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>204.73068</v>
@@ -2444,7 +2540,7 @@
         <v>107.57146</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>95.86690999999999</v>
+        <v>96.0675</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>72.99332000000001</v>
@@ -2459,16 +2555,21 @@
         <v>368.92263</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>126.92784</v>
+        <v>151.59071</v>
       </c>
       <c r="M43" s="48" t="n">
         <v>60.9963</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>105.142</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>506.79382</v>
@@ -2483,7 +2584,7 @@
         <v>1046.94997</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>760.01775</v>
+        <v>761.6893100000001</v>
       </c>
       <c r="H44" s="47" t="n">
         <v>2068.16453</v>
@@ -2498,16 +2599,21 @@
         <v>4295.49595</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2489.6793</v>
+        <v>2491.19229</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3099.89326</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3099.98525</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2717.762</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>495.64347</v>
@@ -2522,7 +2628,7 @@
         <v>953.0270300000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>728.8036299999999</v>
+        <v>729.0991399999999</v>
       </c>
       <c r="H45" s="48" t="n">
         <v>1933.16928</v>
@@ -2534,19 +2640,24 @@
         <v>2930.435</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>4157.669519999999</v>
+        <v>4157.66952</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2369.52976</v>
+        <v>2371.04275</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3099.89326</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>3099.98525</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2717.762</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>11.15035</v>
@@ -2561,7 +2672,7 @@
         <v>93.92294</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>31.21412</v>
+        <v>32.59017</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>134.99525</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>180.87651</v>
@@ -2594,13 +2710,13 @@
         <v>50.31609999999998</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>579.44142</v>
+        <v>579.4414199999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-70.52536000000005</v>
+        <v>-70.52535999999992</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1813.00812</v>
+        <v>1776.7679</v>
       </c>
       <c r="H47" s="47" t="n">
         <v>1140.70154</v>
@@ -2609,22 +2725,27 @@
         <v>962.9965100000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>358.2577199999999</v>
+        <v>357.0505699999998</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>92.24960000000009</v>
+        <v>92.2495999999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1260.06436</v>
+        <v>995.45108</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-144.07028</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>296.7832600000001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1347.14</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>110.26658</v>
@@ -2639,7 +2760,7 @@
         <v>1308.59212</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>961.29863</v>
+        <v>961.30102</v>
       </c>
       <c r="H48" s="47" t="n">
         <v>434.38775</v>
@@ -2648,22 +2769,27 @@
         <v>935.58392</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1500.82851</v>
+        <v>1500.82805</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>2196.13172</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>669.75579</v>
+        <v>676.1242099999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>2256.52168</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2262.90381</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1553.411</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>4e-05</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>110.26654</v>
@@ -2717,31 +2848,36 @@
         <v>1285.67912</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>959.29863</v>
+        <v>959.30102</v>
       </c>
       <c r="H50" s="48" t="n">
         <v>414.58577</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>935.58392</v>
+        <v>935.5839199999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1500.82851</v>
+        <v>1500.82805</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>2143.16266</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>660.73245</v>
+        <v>667.10087</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>2255.12168</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2261.50381</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1553.411</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>326.44442</v>
@@ -2759,28 +2895,33 @@
         <v>1289.96419</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>862.1001600000001</v>
+        <v>862.10016</v>
       </c>
       <c r="I51" s="47" t="n">
         <v>977.99592</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2435.98277</v>
+        <v>2439.0188</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>1027.23352</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>627.61649</v>
+        <v>628.4371799999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1433.10386</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1444.75359</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1014.694</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0.4244</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>25.47444</v>
@@ -2852,13 +2998,18 @@
         <v>18.39381</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>0.74356</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0.8935599999999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1.845</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>300.54558</v>
@@ -2876,67 +3027,77 @@
         <v>1242.65664</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>794.33789</v>
+        <v>794.3378899999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>924.8517999999999</v>
+        <v>924.8518</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>2396.21474</v>
+        <v>2399.25077</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>950.47074</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>609.2226800000001</v>
+        <v>610.04337</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1432.3603</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1443.86003</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1012.849</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-35.30132999999997</v>
+        <v>-35.30132999999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-95.98103000000006</v>
+        <v>-95.98102999999998</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-884.7711799999998</v>
+        <v>-884.7711800000002</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-68.79362999999995</v>
+        <v>-68.79363000000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1484.34256</v>
+        <v>1448.10473</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>712.98913</v>
+        <v>712.9891299999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>920.5845099999999</v>
+        <v>920.5845100000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-576.8965400000001</v>
+        <v>-581.1401800000001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1261.1478</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1302.20366</v>
+        <v>1043.13811</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>679.3475399999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1114.93348</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1885.857</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>252.29325</v>
@@ -2966,22 +3127,27 @@
         <v>1002.72023</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>639.49332</v>
+        <v>640.17399</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>600.10787</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>783.3133800000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1086.575</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-287.59458</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-474.48951</v>
+        <v>-474.4895100000001</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>-1252.74537</v>
@@ -2990,28 +3156,31 @@
         <v>-489.08035</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>945.0045999999999</v>
+        <v>908.7667700000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>98.18486000000004</v>
+        <v>98.1848600000001</v>
       </c>
       <c r="I57" s="47" t="n">
         <v>281.84126</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-1525.37611</v>
+        <v>-1529.61975</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>258.4275700000003</v>
+        <v>258.4275699999998</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>662.71034</v>
+        <v>402.9641199999999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>79.23967000000005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>331.6201000000001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>799.282</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>254</v>
@@ -3044,28 +3216,31 @@
         <v>302</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H59" s="35" t="n">
         <v>327</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>340</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>297</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>